--- a/data/trans_camb/P41_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P41_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,25</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,96</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>11,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-22,22</t>
+          <t>9,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-11,99</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-11,69</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-7,97</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-17,9</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,37</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,27</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 37,37</t>
+          <t>1,52; 34,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 15,91</t>
+          <t>3,13; 21,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 24,51</t>
+          <t>3,74; 23,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,31; -4,74</t>
+          <t>-3,07; 39,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 18,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 10,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-33,83; 9,45</t>
+          <t>-7,08; 4,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 9,76</t>
+          <t>-7,53; 2,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 24,99</t>
+          <t>-6,8; 3,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 10,03</t>
+          <t>-9,43; 0,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 14,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-31,1; -3,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 15,98</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 9,66</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 10,55</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 18,95</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>260,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,82%</t>
+          <t>228,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>248,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-40,37%</t>
+          <t>225,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-21,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-22,95%</t>
+          <t>-21,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-22,39%</t>
+          <t>-29,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>-19,1%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-14,8%</t>
+          <t>-51,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-6,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-33,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>74,88%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>60,23%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>73,1%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>36,5%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 88,15</t>
+          <t>-1,54; 2778,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,61; 38,35</t>
+          <t>3,29; 1327,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 56,68</t>
+          <t>4,51; 1637,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,47; -10,28</t>
+          <t>-67,92; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,43; 44,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,88; 27,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,31; 24,34</t>
+          <t>-67,27; 114,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,19; 23,87</t>
+          <t>-70,61; 74,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 55,83</t>
+          <t>-61,0; 103,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-36,15; 22,23</t>
+          <t>-83,31; 35,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 32,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-50,74; -7,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-20,62; 391,55</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-18,7; 250,45</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-9,89; 289,65</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-62,15; 524,22</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,35</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 9,86</t>
+          <t>-3,29; 8,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 10,46</t>
+          <t>-2,31; 8,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 13,65</t>
+          <t>-1,06; 10,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 16,22</t>
+          <t>-8,28; 2,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 10,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 7,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 6,59</t>
+          <t>-2,24; 6,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 14,61</t>
+          <t>-1,23; 6,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 7,34</t>
+          <t>-0,74; 6,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 6,33</t>
+          <t>-1,27; 7,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 8,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 13,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 5,49</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 6,43</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 7,58</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 3,58</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,34%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>51,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>-24,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,35%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>46,11%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>40,81%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>23,64%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>38,83%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>51,57%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 38,87</t>
+          <t>-30,69; 131,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 40,47</t>
+          <t>-19,35; 125,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 52,48</t>
+          <t>-9,71; 151,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 61,18</t>
+          <t>-59,26; 36,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,47; 33,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 24,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 21,09</t>
+          <t>-27,39; 122,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 49,52</t>
+          <t>-13,57; 124,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 25,5</t>
+          <t>-9,39; 131,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 21,83</t>
+          <t>-15,4; 149,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 28,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 46,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-16,64; 84,22</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 95,42</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>8,96; 115,9</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-31,06; 53,26</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,95</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-2,39</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 10,24</t>
+          <t>-2,84; 11,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 10,37</t>
+          <t>-2,45; 8,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 10,77</t>
+          <t>-0,86; 10,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 14,85</t>
+          <t>-8,34; 5,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 6,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 4,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 6,34</t>
+          <t>-7,45; 4,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 12,76</t>
+          <t>-4,76; 7,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 4,57</t>
+          <t>-3,0; 8,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 5,31</t>
+          <t>-8,04; 3,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 6,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 10,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 5,45</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 5,69</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 7,86</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 2,32</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>34,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>48,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>-25,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-12,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>-10,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-5,61%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-0,99%</t>
+          <t>-13,14%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>13,48%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>29,94%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-18,14%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 56,21</t>
+          <t>-23,41; 160,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 61,83</t>
+          <t>-19,0; 131,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 64,51</t>
+          <t>-6,19; 149,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 83,08</t>
+          <t>-64,56; 89,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 24,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,21; 17,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 24,26</t>
+          <t>-38,88; 34,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 50,32</t>
+          <t>-24,76; 63,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 19,61</t>
+          <t>-14,9; 75,98</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 22,2</t>
+          <t>-40,27; 33,34</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 28,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 45,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-22,75; 48,99</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-15,04; 52,14</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 75,62</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-43,52; 22,01</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-2,73</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 8,92</t>
+          <t>-2,47; 8,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 9,12</t>
+          <t>-2,8; 7,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 11,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 10,81</t>
+          <t>-7,68; 3,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 4,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 2,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 4,1</t>
+          <t>-3,63; 3,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 10,36</t>
+          <t>-2,61; 5,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 5,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 4,11</t>
+          <t>-5,93; 0,72</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 5,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 9,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 4,15</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 5,59</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 1,38</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>-22,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,84%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>-23,6%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>14,2%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-22,69%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 35,23</t>
+          <t>-16,91; 68,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 35,58</t>
+          <t>-20,2; 63,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 45,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 42,49</t>
+          <t>-53,14; 33,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 13,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 9,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 13,7</t>
+          <t>-28,95; 38,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 34,1</t>
+          <t>-23,07; 56,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 17,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 14,08</t>
+          <t>-48,69; 8,21</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 19,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 32,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-15,48; 36,64</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-10,78; 50,62</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-44,57; 13,65</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,29</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-1,76</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 5,93</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 5,4</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 6,93</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-5,63; 2,84</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 2,04</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 2,76</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 3,59</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 0,84</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 3,28</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 3,24</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 4,45</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 0,79</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>21,06%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>21,41%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>30,83%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-19,8%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-2,0%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-11,92%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>9,82%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>14,12%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-15,95%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 58,81</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 50,97</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 66,9</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-44,81; 29,35</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-21,33; 22,59</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-13,18; 29,4</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 36,62</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-30,62; 8,99</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-8,51; 32,34</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 32,6</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>4,42; 43,01</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-32,52; 7,39</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
